--- a/data/files/60/省台频道-华为.xlsx
+++ b/data/files/60/省台频道-华为.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wujun\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baidu/code/wiki/data/files/60/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FB5BB8D5-9580-447D-A7D8-3B372E7DEC47}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{CD956705-DB2D-B04A-A774-57980BFD12AB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8856" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="省台频道" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
   <si>
     <t>测试频道4</t>
   </si>
@@ -1167,6 +1167,13 @@
   </si>
   <si>
     <t>频道名称</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证</t>
+    <rPh sb="0" eb="2">
+      <t>yan'zheng</t>
+    </rPh>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1174,7 +1181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1766,24 +1773,24 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20%-个性色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20%-个性色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20%-个性色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20%-个性色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20%-个性色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20%-个性色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40%-个性色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40%-个性色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40%-个性色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40%-个性色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40%-个性色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40%-个性色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60%-个性色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60%-个性色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60%-个性色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60%-个性色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60%-个性色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60%-个性色6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1791,6 +1798,12 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="个性色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="个性色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="个性色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="个性色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="个性色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="个性色6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1801,12 +1814,6 @@
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2119,23 +2126,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B383"/>
+  <dimension ref="A1:C383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>380</v>
       </c>
       <c r="B1" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2143,7 +2157,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2151,7 +2165,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -2159,7 +2173,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -2167,7 +2181,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -2175,7 +2189,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -2183,7 +2197,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -2191,7 +2205,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2199,7 +2213,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2207,7 +2221,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2215,7 +2229,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2223,7 +2237,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2231,7 +2245,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -2239,7 +2253,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15">
         <v>17</v>
       </c>
@@ -2247,7 +2261,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16">
         <v>20</v>
       </c>
@@ -2255,7 +2269,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>21</v>
       </c>
@@ -2263,7 +2277,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>22</v>
       </c>
@@ -2271,7 +2285,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>24</v>
       </c>
@@ -2279,7 +2293,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>25</v>
       </c>
@@ -2287,7 +2301,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>28</v>
       </c>
@@ -2295,7 +2309,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>31</v>
       </c>
@@ -2303,7 +2317,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>32</v>
       </c>
@@ -2311,7 +2325,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>33</v>
       </c>
@@ -2319,7 +2333,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>34</v>
       </c>
@@ -2327,7 +2341,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>35</v>
       </c>
@@ -2335,7 +2349,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>36</v>
       </c>
@@ -2343,7 +2357,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>37</v>
       </c>
@@ -2351,7 +2365,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>38</v>
       </c>
@@ -2359,7 +2373,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>39</v>
       </c>
@@ -2367,7 +2381,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>40</v>
       </c>
@@ -2375,7 +2389,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>41</v>
       </c>
@@ -2383,7 +2397,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>42</v>
       </c>
@@ -2391,7 +2405,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>43</v>
       </c>
@@ -2399,7 +2413,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>59</v>
       </c>
@@ -2407,7 +2421,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>60</v>
       </c>
@@ -2415,7 +2429,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>61</v>
       </c>
@@ -2423,7 +2437,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>67</v>
       </c>
@@ -2431,7 +2445,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>68</v>
       </c>
@@ -2439,7 +2453,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>69</v>
       </c>
@@ -2447,7 +2461,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>70</v>
       </c>
@@ -2455,7 +2469,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>71</v>
       </c>
@@ -2463,7 +2477,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>72</v>
       </c>
@@ -2471,7 +2485,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>73</v>
       </c>
@@ -2479,7 +2493,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>74</v>
       </c>
@@ -2487,7 +2501,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>75</v>
       </c>
@@ -2495,7 +2509,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>76</v>
       </c>
@@ -2503,7 +2517,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>79</v>
       </c>
@@ -2511,7 +2525,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>96</v>
       </c>
@@ -2519,7 +2533,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>97</v>
       </c>
@@ -2527,7 +2541,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>98</v>
       </c>
@@ -2535,7 +2549,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>99</v>
       </c>
@@ -2543,7 +2557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>101</v>
       </c>
@@ -2551,7 +2565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>102</v>
       </c>
@@ -2559,7 +2573,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>103</v>
       </c>
@@ -2567,7 +2581,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>104</v>
       </c>
@@ -2575,7 +2589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>105</v>
       </c>
@@ -2583,7 +2597,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>106</v>
       </c>
@@ -2591,7 +2605,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>107</v>
       </c>
@@ -2599,7 +2613,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>108</v>
       </c>
@@ -2607,7 +2621,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>109</v>
       </c>
@@ -2615,7 +2629,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>110</v>
       </c>
@@ -2623,7 +2637,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>111</v>
       </c>
@@ -2631,7 +2645,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>112</v>
       </c>
@@ -2639,7 +2653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>113</v>
       </c>
@@ -2647,7 +2661,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>114</v>
       </c>
@@ -2655,7 +2669,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>115</v>
       </c>
@@ -2663,7 +2677,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>116</v>
       </c>
@@ -2671,7 +2685,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>120</v>
       </c>
@@ -2679,7 +2693,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>121</v>
       </c>
@@ -2687,7 +2701,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>122</v>
       </c>
@@ -2695,7 +2709,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>123</v>
       </c>
@@ -2703,7 +2717,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>124</v>
       </c>
@@ -2711,7 +2725,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>125</v>
       </c>
@@ -2719,7 +2733,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>126</v>
       </c>
@@ -2727,7 +2741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>127</v>
       </c>
@@ -2735,7 +2749,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>128</v>
       </c>
@@ -2743,7 +2757,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>129</v>
       </c>
@@ -2751,7 +2765,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>130</v>
       </c>
@@ -2759,7 +2773,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>131</v>
       </c>
@@ -2767,7 +2781,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>131</v>
       </c>
@@ -2775,7 +2789,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>132</v>
       </c>
@@ -2783,7 +2797,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>133</v>
       </c>
@@ -2791,7 +2805,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>134</v>
       </c>
@@ -2799,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>135</v>
       </c>
@@ -2807,7 +2821,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>136</v>
       </c>
@@ -2815,7 +2829,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>138</v>
       </c>
@@ -2823,7 +2837,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>139</v>
       </c>
@@ -2831,7 +2845,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>140</v>
       </c>
@@ -2839,7 +2853,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>141</v>
       </c>
@@ -2847,7 +2861,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>143</v>
       </c>
@@ -2855,7 +2869,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>144</v>
       </c>
@@ -2863,7 +2877,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>145</v>
       </c>
@@ -2871,7 +2885,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>146</v>
       </c>
@@ -2879,7 +2893,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>147</v>
       </c>
@@ -2887,7 +2901,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>148</v>
       </c>
@@ -2895,7 +2909,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>149</v>
       </c>
@@ -2903,7 +2917,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>150</v>
       </c>
@@ -2911,7 +2925,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>151</v>
       </c>
@@ -2919,7 +2933,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>153</v>
       </c>
@@ -2927,7 +2941,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>154</v>
       </c>
@@ -2935,7 +2949,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>155</v>
       </c>
@@ -2943,7 +2957,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>155</v>
       </c>
@@ -2951,7 +2965,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>156</v>
       </c>
@@ -2959,7 +2973,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>156</v>
       </c>
@@ -2967,7 +2981,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>158</v>
       </c>
@@ -2975,7 +2989,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>159</v>
       </c>
@@ -2983,7 +2997,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>160</v>
       </c>
@@ -2991,7 +3005,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>161</v>
       </c>
@@ -2999,7 +3013,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>162</v>
       </c>
@@ -3007,7 +3021,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>163</v>
       </c>
@@ -3015,7 +3029,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>164</v>
       </c>
@@ -3023,7 +3037,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>165</v>
       </c>
@@ -3031,7 +3045,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>166</v>
       </c>
@@ -3039,7 +3053,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>167</v>
       </c>
@@ -3047,7 +3061,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>168</v>
       </c>
@@ -3055,7 +3069,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>169</v>
       </c>
@@ -3063,7 +3077,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>170</v>
       </c>
@@ -3071,7 +3085,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>171</v>
       </c>
@@ -3079,7 +3093,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>172</v>
       </c>
@@ -3087,7 +3101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>173</v>
       </c>
@@ -3095,7 +3109,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>174</v>
       </c>
@@ -3103,7 +3117,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>175</v>
       </c>
@@ -3111,7 +3125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>176</v>
       </c>
@@ -3119,7 +3133,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>177</v>
       </c>
@@ -3127,7 +3141,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>178</v>
       </c>
@@ -3135,7 +3149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>179</v>
       </c>
@@ -3143,7 +3157,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>180</v>
       </c>
@@ -3151,7 +3165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>181</v>
       </c>
@@ -3159,7 +3173,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>182</v>
       </c>
@@ -3167,7 +3181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>183</v>
       </c>
@@ -3175,7 +3189,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>184</v>
       </c>
@@ -3183,7 +3197,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>185</v>
       </c>
@@ -3191,7 +3205,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>186</v>
       </c>
@@ -3199,7 +3213,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>187</v>
       </c>
@@ -3207,7 +3221,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>188</v>
       </c>
@@ -3215,7 +3229,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>189</v>
       </c>
@@ -3223,7 +3237,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>190</v>
       </c>
@@ -3231,7 +3245,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>191</v>
       </c>
@@ -3239,7 +3253,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>192</v>
       </c>
@@ -3247,7 +3261,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>193</v>
       </c>
@@ -3255,7 +3269,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>194</v>
       </c>
@@ -3263,7 +3277,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>195</v>
       </c>
@@ -3271,7 +3285,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>196</v>
       </c>
@@ -3279,7 +3293,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145">
         <v>201</v>
       </c>
@@ -3287,7 +3301,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146">
         <v>202</v>
       </c>
@@ -3295,7 +3309,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147">
         <v>203</v>
       </c>
@@ -3303,7 +3317,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2">
       <c r="A148">
         <v>204</v>
       </c>
@@ -3311,7 +3325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149">
         <v>205</v>
       </c>
@@ -3319,7 +3333,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2">
       <c r="A150">
         <v>206</v>
       </c>
@@ -3327,7 +3341,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151">
         <v>207</v>
       </c>
@@ -3335,7 +3349,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152">
         <v>208</v>
       </c>
@@ -3343,7 +3357,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153">
         <v>209</v>
       </c>
@@ -3351,7 +3365,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154">
         <v>210</v>
       </c>
@@ -3359,7 +3373,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155">
         <v>212</v>
       </c>
@@ -3367,7 +3381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2">
       <c r="A156">
         <v>213</v>
       </c>
@@ -3375,7 +3389,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157">
         <v>215</v>
       </c>
@@ -3383,7 +3397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2">
       <c r="A158">
         <v>217</v>
       </c>
@@ -3391,7 +3405,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159">
         <v>218</v>
       </c>
@@ -3399,7 +3413,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160">
         <v>219</v>
       </c>
@@ -3407,7 +3421,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161">
         <v>220</v>
       </c>
@@ -3415,7 +3429,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2">
       <c r="A162">
         <v>221</v>
       </c>
@@ -3423,7 +3437,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2">
       <c r="A163">
         <v>222</v>
       </c>
@@ -3431,7 +3445,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2">
       <c r="A164">
         <v>223</v>
       </c>
@@ -3439,7 +3453,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2">
       <c r="A165">
         <v>224</v>
       </c>
@@ -3447,7 +3461,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2">
       <c r="A166">
         <v>225</v>
       </c>
@@ -3455,7 +3469,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2">
       <c r="A167">
         <v>226</v>
       </c>
@@ -3463,7 +3477,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2">
       <c r="A168">
         <v>227</v>
       </c>
@@ -3471,7 +3485,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2">
       <c r="A169">
         <v>228</v>
       </c>
@@ -3479,7 +3493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2">
       <c r="A170">
         <v>229</v>
       </c>
@@ -3487,7 +3501,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2">
       <c r="A171">
         <v>230</v>
       </c>
@@ -3495,7 +3509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2">
       <c r="A172">
         <v>243</v>
       </c>
@@ -3503,7 +3517,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2">
       <c r="A173">
         <v>244</v>
       </c>
@@ -3511,7 +3525,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2">
       <c r="A174">
         <v>245</v>
       </c>
@@ -3519,7 +3533,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2">
       <c r="A175">
         <v>246</v>
       </c>
@@ -3527,7 +3541,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2">
       <c r="A176">
         <v>247</v>
       </c>
@@ -3535,7 +3549,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2">
       <c r="A177">
         <v>248</v>
       </c>
@@ -3543,7 +3557,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2">
       <c r="A178">
         <v>249</v>
       </c>
@@ -3551,7 +3565,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2">
       <c r="A179">
         <v>250</v>
       </c>
@@ -3559,7 +3573,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2">
       <c r="A180">
         <v>251</v>
       </c>
@@ -3567,7 +3581,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2">
       <c r="A181">
         <v>252</v>
       </c>
@@ -3575,7 +3589,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2">
       <c r="A182">
         <v>253</v>
       </c>
@@ -3583,7 +3597,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2">
       <c r="A183">
         <v>254</v>
       </c>
@@ -3591,7 +3605,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2">
       <c r="A184">
         <v>258</v>
       </c>
@@ -3599,7 +3613,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2">
       <c r="A185">
         <v>260</v>
       </c>
@@ -3607,7 +3621,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2">
       <c r="A186">
         <v>261</v>
       </c>
@@ -3615,7 +3629,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2">
       <c r="A187">
         <v>262</v>
       </c>
@@ -3623,7 +3637,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2">
       <c r="A188">
         <v>262</v>
       </c>
@@ -3631,7 +3645,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2">
       <c r="A189">
         <v>271</v>
       </c>
@@ -3639,7 +3653,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2">
       <c r="A190">
         <v>272</v>
       </c>
@@ -3647,7 +3661,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2">
       <c r="A191">
         <v>273</v>
       </c>
@@ -3655,7 +3669,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2">
       <c r="A192">
         <v>274</v>
       </c>
@@ -3663,7 +3677,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2">
       <c r="A193">
         <v>275</v>
       </c>
@@ -3671,7 +3685,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2">
       <c r="A194">
         <v>276</v>
       </c>
@@ -3679,7 +3693,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2">
       <c r="A195">
         <v>277</v>
       </c>
@@ -3687,7 +3701,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2">
       <c r="A196">
         <v>278</v>
       </c>
@@ -3695,7 +3709,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2">
       <c r="A197">
         <v>301</v>
       </c>
@@ -3703,7 +3717,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2">
       <c r="A198">
         <v>302</v>
       </c>
@@ -3711,7 +3725,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2">
       <c r="A199">
         <v>305</v>
       </c>
@@ -3719,7 +3733,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2">
       <c r="A200">
         <v>306</v>
       </c>
@@ -3727,7 +3741,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2">
       <c r="A201">
         <v>307</v>
       </c>
@@ -3735,7 +3749,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2">
       <c r="A202">
         <v>308</v>
       </c>
@@ -3743,7 +3757,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2">
       <c r="A203">
         <v>309</v>
       </c>
@@ -3751,7 +3765,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2">
       <c r="A204">
         <v>310</v>
       </c>
@@ -3759,7 +3773,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2">
       <c r="A205">
         <v>311</v>
       </c>
@@ -3767,7 +3781,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2">
       <c r="A206">
         <v>312</v>
       </c>
@@ -3775,7 +3789,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2">
       <c r="A207">
         <v>313</v>
       </c>
@@ -3783,7 +3797,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2">
       <c r="A208">
         <v>314</v>
       </c>
@@ -3791,7 +3805,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2">
       <c r="A209">
         <v>315</v>
       </c>
@@ -3799,7 +3813,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2">
       <c r="A210">
         <v>316</v>
       </c>
@@ -3807,7 +3821,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2">
       <c r="A211">
         <v>317</v>
       </c>
@@ -3815,7 +3829,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2">
       <c r="A212">
         <v>318</v>
       </c>
@@ -3823,7 +3837,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2">
       <c r="A213">
         <v>319</v>
       </c>
@@ -3831,7 +3845,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2">
       <c r="A214">
         <v>320</v>
       </c>
@@ -3839,7 +3853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2">
       <c r="A215">
         <v>321</v>
       </c>
@@ -3847,7 +3861,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2">
       <c r="A216">
         <v>322</v>
       </c>
@@ -3855,7 +3869,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2">
       <c r="A217">
         <v>326</v>
       </c>
@@ -3863,7 +3877,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2">
       <c r="A218">
         <v>327</v>
       </c>
@@ -3871,7 +3885,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2">
       <c r="A219">
         <v>333</v>
       </c>
@@ -3879,7 +3893,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2">
       <c r="A220">
         <v>334</v>
       </c>
@@ -3887,7 +3901,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2">
       <c r="A221">
         <v>335</v>
       </c>
@@ -3895,7 +3909,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2">
       <c r="A222">
         <v>336</v>
       </c>
@@ -3903,7 +3917,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2">
       <c r="A223">
         <v>337</v>
       </c>
@@ -3911,7 +3925,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2">
       <c r="A224">
         <v>338</v>
       </c>
@@ -3919,7 +3933,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2">
       <c r="A225">
         <v>339</v>
       </c>
@@ -3927,7 +3941,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2">
       <c r="A226">
         <v>340</v>
       </c>
@@ -3935,7 +3949,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2">
       <c r="A227">
         <v>341</v>
       </c>
@@ -3943,7 +3957,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2">
       <c r="A228">
         <v>342</v>
       </c>
@@ -3951,7 +3965,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2">
       <c r="A229">
         <v>347</v>
       </c>
@@ -3959,7 +3973,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2">
       <c r="A230">
         <v>348</v>
       </c>
@@ -3967,7 +3981,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2">
       <c r="A231">
         <v>349</v>
       </c>
@@ -3975,7 +3989,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2">
       <c r="A232">
         <v>350</v>
       </c>
@@ -3983,7 +3997,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2">
       <c r="A233">
         <v>351</v>
       </c>
@@ -3991,7 +4005,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2">
       <c r="A234">
         <v>352</v>
       </c>
@@ -3999,7 +4013,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2">
       <c r="A235">
         <v>353</v>
       </c>
@@ -4007,7 +4021,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2">
       <c r="A236">
         <v>666</v>
       </c>
@@ -4015,7 +4029,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2">
       <c r="A237">
         <v>701</v>
       </c>
@@ -4023,7 +4037,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2">
       <c r="A238">
         <v>702</v>
       </c>
@@ -4031,7 +4045,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2">
       <c r="A239">
         <v>703</v>
       </c>
@@ -4039,7 +4053,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2">
       <c r="A240">
         <v>706</v>
       </c>
@@ -4047,7 +4061,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2">
       <c r="A241">
         <v>707</v>
       </c>
@@ -4055,7 +4069,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2">
       <c r="A242">
         <v>708</v>
       </c>
@@ -4063,7 +4077,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2">
       <c r="A243">
         <v>711</v>
       </c>
@@ -4071,7 +4085,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2">
       <c r="A244">
         <v>712</v>
       </c>
@@ -4079,7 +4093,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2">
       <c r="A245">
         <v>713</v>
       </c>
@@ -4087,7 +4101,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2">
       <c r="A246">
         <v>716</v>
       </c>
@@ -4095,7 +4109,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2">
       <c r="A247">
         <v>717</v>
       </c>
@@ -4103,7 +4117,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2">
       <c r="A248">
         <v>718</v>
       </c>
@@ -4111,7 +4125,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2">
       <c r="A249">
         <v>721</v>
       </c>
@@ -4119,7 +4133,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2">
       <c r="A250">
         <v>722</v>
       </c>
@@ -4127,7 +4141,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2">
       <c r="A251">
         <v>723</v>
       </c>
@@ -4135,7 +4149,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2">
       <c r="A252">
         <v>724</v>
       </c>
@@ -4143,7 +4157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2">
       <c r="A253">
         <v>725</v>
       </c>
@@ -4151,7 +4165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2">
       <c r="A254">
         <v>900</v>
       </c>
@@ -4159,7 +4173,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2">
       <c r="A255">
         <v>901</v>
       </c>
@@ -4167,7 +4181,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2">
       <c r="A256">
         <v>902</v>
       </c>
@@ -4175,7 +4189,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2">
       <c r="A257">
         <v>910</v>
       </c>
@@ -4183,7 +4197,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2">
       <c r="A258">
         <v>911</v>
       </c>
@@ -4191,7 +4205,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2">
       <c r="A259">
         <v>912</v>
       </c>
@@ -4199,7 +4213,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2">
       <c r="A260">
         <v>920</v>
       </c>
@@ -4207,7 +4221,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2">
       <c r="A261">
         <v>921</v>
       </c>
@@ -4215,7 +4229,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2">
       <c r="A262">
         <v>922</v>
       </c>
@@ -4223,7 +4237,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2">
       <c r="A263">
         <v>923</v>
       </c>
@@ -4231,7 +4245,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2">
       <c r="A264">
         <v>924</v>
       </c>
@@ -4239,7 +4253,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2">
       <c r="A265">
         <v>925</v>
       </c>
@@ -4247,7 +4261,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2">
       <c r="A266">
         <v>926</v>
       </c>
@@ -4255,7 +4269,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2">
       <c r="A267">
         <v>927</v>
       </c>
@@ -4263,7 +4277,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2">
       <c r="A268">
         <v>928</v>
       </c>
@@ -4271,7 +4285,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2">
       <c r="A269">
         <v>929</v>
       </c>
@@ -4279,7 +4293,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2">
       <c r="A270">
         <v>997</v>
       </c>
@@ -4287,7 +4301,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2">
       <c r="A271">
         <v>998</v>
       </c>
@@ -4295,7 +4309,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2">
       <c r="A272">
         <v>1001</v>
       </c>
@@ -4303,7 +4317,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2">
       <c r="A273">
         <v>1002</v>
       </c>
@@ -4311,7 +4325,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2">
       <c r="A274">
         <v>1003</v>
       </c>
@@ -4319,7 +4333,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2">
       <c r="A275">
         <v>1005</v>
       </c>
@@ -4327,7 +4341,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2">
       <c r="A276">
         <v>1006</v>
       </c>
@@ -4335,7 +4349,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2">
       <c r="A277">
         <v>1007</v>
       </c>
@@ -4343,7 +4357,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2">
       <c r="A278">
         <v>1008</v>
       </c>
@@ -4351,7 +4365,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2">
       <c r="A279">
         <v>1009</v>
       </c>
@@ -4359,7 +4373,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2">
       <c r="A280">
         <v>1010</v>
       </c>
@@ -4367,7 +4381,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2">
       <c r="A281">
         <v>1012</v>
       </c>
@@ -4375,7 +4389,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2">
       <c r="A282">
         <v>1014</v>
       </c>
@@ -4383,7 +4397,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2">
       <c r="A283">
         <v>1017</v>
       </c>
@@ -4391,7 +4405,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2">
       <c r="A284">
         <v>1020</v>
       </c>
@@ -4399,7 +4413,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2">
       <c r="A285">
         <v>1021</v>
       </c>
@@ -4407,7 +4421,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2">
       <c r="A286">
         <v>1022</v>
       </c>
@@ -4415,7 +4429,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2">
       <c r="A287">
         <v>1024</v>
       </c>
@@ -4423,7 +4437,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2">
       <c r="A288">
         <v>1028</v>
       </c>
@@ -4431,7 +4445,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2">
       <c r="A289">
         <v>1031</v>
       </c>
@@ -4439,7 +4453,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2">
       <c r="A290">
         <v>1032</v>
       </c>
@@ -4447,7 +4461,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2">
       <c r="A291">
         <v>1033</v>
       </c>
@@ -4455,7 +4469,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2">
       <c r="A292">
         <v>1034</v>
       </c>
@@ -4463,7 +4477,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2">
       <c r="A293">
         <v>1035</v>
       </c>
@@ -4471,7 +4485,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2">
       <c r="A294">
         <v>1036</v>
       </c>
@@ -4479,7 +4493,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2">
       <c r="A295">
         <v>1037</v>
       </c>
@@ -4487,7 +4501,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2">
       <c r="A296">
         <v>1038</v>
       </c>
@@ -4495,7 +4509,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2">
       <c r="A297">
         <v>1039</v>
       </c>
@@ -4503,7 +4517,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2">
       <c r="A298">
         <v>1040</v>
       </c>
@@ -4511,7 +4525,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2">
       <c r="A299">
         <v>1041</v>
       </c>
@@ -4519,7 +4533,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2">
       <c r="A300">
         <v>1042</v>
       </c>
@@ -4527,7 +4541,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2">
       <c r="A301">
         <v>1060</v>
       </c>
@@ -4535,7 +4549,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2">
       <c r="A302">
         <v>1061</v>
       </c>
@@ -4543,7 +4557,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2">
       <c r="A303">
         <v>1067</v>
       </c>
@@ -4551,7 +4565,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2">
       <c r="A304">
         <v>1070</v>
       </c>
@@ -4559,7 +4573,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2">
       <c r="A305">
         <v>1072</v>
       </c>
@@ -4567,7 +4581,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2">
       <c r="A306">
         <v>1073</v>
       </c>
@@ -4575,7 +4589,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2">
       <c r="A307">
         <v>1074</v>
       </c>
@@ -4583,7 +4597,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2">
       <c r="A308">
         <v>1076</v>
       </c>
@@ -4591,7 +4605,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2">
       <c r="A309">
         <v>1101</v>
       </c>
@@ -4599,7 +4613,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2">
       <c r="A310">
         <v>1102</v>
       </c>
@@ -4607,7 +4621,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2">
       <c r="A311">
         <v>1103</v>
       </c>
@@ -4615,7 +4629,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2">
       <c r="A312">
         <v>1104</v>
       </c>
@@ -4623,7 +4637,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2">
       <c r="A313">
         <v>1105</v>
       </c>
@@ -4631,7 +4645,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2">
       <c r="A314">
         <v>1106</v>
       </c>
@@ -4639,7 +4653,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2">
       <c r="A315">
         <v>1107</v>
       </c>
@@ -4647,7 +4661,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2">
       <c r="A316">
         <v>1108</v>
       </c>
@@ -4655,7 +4669,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2">
       <c r="A317">
         <v>1109</v>
       </c>
@@ -4663,7 +4677,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2">
       <c r="A318">
         <v>1110</v>
       </c>
@@ -4671,7 +4685,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2">
       <c r="A319">
         <v>1111</v>
       </c>
@@ -4679,7 +4693,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2">
       <c r="A320">
         <v>1112</v>
       </c>
@@ -4687,7 +4701,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2">
       <c r="A321">
         <v>1113</v>
       </c>
@@ -4695,7 +4709,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2">
       <c r="A322">
         <v>1114</v>
       </c>
@@ -4703,7 +4717,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2">
       <c r="A323">
         <v>1115</v>
       </c>
@@ -4711,7 +4725,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2">
       <c r="A324">
         <v>1116</v>
       </c>
@@ -4719,7 +4733,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2">
       <c r="A325">
         <v>1120</v>
       </c>
@@ -4727,7 +4741,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2">
       <c r="A326">
         <v>1121</v>
       </c>
@@ -4735,7 +4749,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2">
       <c r="A327">
         <v>1122</v>
       </c>
@@ -4743,7 +4757,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2">
       <c r="A328">
         <v>1123</v>
       </c>
@@ -4751,7 +4765,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2">
       <c r="A329">
         <v>1124</v>
       </c>
@@ -4759,7 +4773,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2">
       <c r="A330">
         <v>1125</v>
       </c>
@@ -4767,7 +4781,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2">
       <c r="A331">
         <v>1126</v>
       </c>
@@ -4775,7 +4789,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2">
       <c r="A332">
         <v>1127</v>
       </c>
@@ -4783,7 +4797,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2">
       <c r="A333">
         <v>1128</v>
       </c>
@@ -4791,7 +4805,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2">
       <c r="A334">
         <v>1129</v>
       </c>
@@ -4799,7 +4813,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2">
       <c r="A335">
         <v>1130</v>
       </c>
@@ -4807,7 +4821,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2">
       <c r="A336">
         <v>1167</v>
       </c>
@@ -4815,7 +4829,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2">
       <c r="A337">
         <v>1168</v>
       </c>
@@ -4823,7 +4837,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2">
       <c r="A338">
         <v>1169</v>
       </c>
@@ -4831,7 +4845,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2">
       <c r="A339">
         <v>1170</v>
       </c>
@@ -4839,7 +4853,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2">
       <c r="A340">
         <v>1171</v>
       </c>
@@ -4847,7 +4861,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2">
       <c r="A341">
         <v>1172</v>
       </c>
@@ -4855,7 +4869,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2">
       <c r="A342">
         <v>1173</v>
       </c>
@@ -4863,7 +4877,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2">
       <c r="A343">
         <v>1174</v>
       </c>
@@ -4871,7 +4885,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2">
       <c r="A344">
         <v>1175</v>
       </c>
@@ -4879,7 +4893,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2">
       <c r="A345">
         <v>1176</v>
       </c>
@@ -4887,7 +4901,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2">
       <c r="A346">
         <v>1177</v>
       </c>
@@ -4895,7 +4909,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2">
       <c r="A347">
         <v>1178</v>
       </c>
@@ -4903,7 +4917,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2">
       <c r="A348">
         <v>1179</v>
       </c>
@@ -4911,7 +4925,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2">
       <c r="A349">
         <v>1180</v>
       </c>
@@ -4919,7 +4933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2">
       <c r="A350">
         <v>1181</v>
       </c>
@@ -4927,7 +4941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2">
       <c r="A351">
         <v>1182</v>
       </c>
@@ -4935,7 +4949,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2">
       <c r="A352">
         <v>1183</v>
       </c>
@@ -4943,7 +4957,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2">
       <c r="A353">
         <v>1184</v>
       </c>
@@ -4951,7 +4965,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2">
       <c r="A354">
         <v>1185</v>
       </c>
@@ -4959,7 +4973,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2">
       <c r="A355">
         <v>1186</v>
       </c>
@@ -4967,7 +4981,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2">
       <c r="A356">
         <v>1187</v>
       </c>
@@ -4975,7 +4989,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2">
       <c r="A357">
         <v>1188</v>
       </c>
@@ -4983,7 +4997,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2">
       <c r="A358">
         <v>1189</v>
       </c>
@@ -4991,7 +5005,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2">
       <c r="A359">
         <v>1190</v>
       </c>
@@ -4999,7 +5013,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2">
       <c r="A360">
         <v>1191</v>
       </c>
@@ -5007,7 +5021,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2">
       <c r="A361">
         <v>1192</v>
       </c>
@@ -5015,7 +5029,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2">
       <c r="A362">
         <v>1193</v>
       </c>
@@ -5023,7 +5037,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2">
       <c r="A363">
         <v>1194</v>
       </c>
@@ -5031,7 +5045,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2">
       <c r="A364">
         <v>1195</v>
       </c>
@@ -5039,7 +5053,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2">
       <c r="A365">
         <v>1196</v>
       </c>
@@ -5047,7 +5061,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2">
       <c r="A366">
         <v>1201</v>
       </c>
@@ -5055,7 +5069,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2">
       <c r="A367">
         <v>1202</v>
       </c>
@@ -5063,7 +5077,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2">
       <c r="A368">
         <v>1203</v>
       </c>
@@ -5071,7 +5085,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2">
       <c r="A369">
         <v>1204</v>
       </c>
@@ -5079,7 +5093,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2">
       <c r="A370">
         <v>1205</v>
       </c>
@@ -5087,7 +5101,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2">
       <c r="A371">
         <v>1206</v>
       </c>
@@ -5095,7 +5109,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2">
       <c r="A372">
         <v>1207</v>
       </c>
@@ -5103,7 +5117,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2">
       <c r="A373">
         <v>1208</v>
       </c>
@@ -5111,7 +5125,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2">
       <c r="A374">
         <v>1209</v>
       </c>
@@ -5119,7 +5133,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2">
       <c r="A375">
         <v>1210</v>
       </c>
@@ -5127,7 +5141,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2">
       <c r="A376">
         <v>1211</v>
       </c>
@@ -5135,7 +5149,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2">
       <c r="A377">
         <v>1212</v>
       </c>
@@ -5143,7 +5157,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2">
       <c r="A378">
         <v>1246</v>
       </c>
@@ -5151,7 +5165,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2">
       <c r="A379">
         <v>1247</v>
       </c>
@@ -5159,7 +5173,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2">
       <c r="A380">
         <v>1251</v>
       </c>
@@ -5167,7 +5181,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2">
       <c r="A381">
         <v>1253</v>
       </c>
@@ -5175,7 +5189,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2">
       <c r="A382">
         <v>1254</v>
       </c>
@@ -5183,7 +5197,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2">
       <c r="A383">
         <v>1255</v>
       </c>
@@ -5198,26 +5212,4 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=aRxcdme.xml><?xml version="1.0" encoding="utf-8"?>
-<Relationships xmlns="http://schemas.openxmlformats.org/package/2006/relationships">
-  <Relationship Id="rId3" Type="http://schemas.openxmlformats.org/officeDocument/2006/relationships/extended-properties" Target="docProps/app.xml"/>
-  <Relationship Id="rId2" Type="http://schemas.openxmlformats.org/package/2006/relationships/metadata/core-properties" Target="docProps/core.xml"/>
-  <Relationship Id="rId1" Type="http://schemas.openxmlformats.org/officeDocument/2006/relationships/officeDocument" Target="xl/workbook.xml"/>
-</Relationships>
-</file>
-
-<file path=daSh6zxH3wa8gVl.xml><?xml version="1.0" encoding="utf-8"?>
-<Types xmlns="http://schemas.openxmlformats.org/package/2006/content-types">
-  <Default Extension="rels" ContentType="application/vnd.openxmlformats-package.relationships+xml"/>
-  <Default Extension="xml" ContentType="application/xml"/>
-  <Override PartName="/xl/workbook.xml" ContentType="application/vnd.openxmlformats-officedocument.spreadsheetml.sheet.main+xml"/>
-  <Override PartName="/xl/worksheets/sheet1.xml" ContentType="application/vnd.openxmlformats-officedocument.spreadsheetml.worksheet+xml"/>
-  <Override PartName="/xl/theme/theme1.xml" ContentType="application/vnd.openxmlformats-officedocument.theme+xml"/>
-  <Override PartName="/xl/styles.xml" ContentType="application/vnd.openxmlformats-officedocument.spreadsheetml.styles+xml"/>
-  <Override PartName="/xl/sharedStrings.xml" ContentType="application/vnd.openxmlformats-officedocument.spreadsheetml.sharedStrings+xml"/>
-  <Override PartName="/docProps/core.xml" ContentType="application/vnd.openxmlformats-package.core-properties+xml"/>
-  <Override PartName="/docProps/app.xml" ContentType="application/vnd.openxmlformats-officedocument.extended-properties+xml"/>
-</Types>
 </file>